--- a/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/131.ER図.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/131.ER図.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\13x.テーブル設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\13x.テーブル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5001CFD-2583-4823-922E-EF65435EC431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151035D-12B5-4BEC-8F56-47DEAB963340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="11" r:id="rId1"/>
     <sheet name="ER図" sheetId="9" r:id="rId2"/>
-    <sheet name="ER図 (2)" sheetId="14" r:id="rId3"/>
-    <sheet name="ヘッダー" sheetId="10" r:id="rId4"/>
+    <sheet name="ヘッダー" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ER図!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'ER図 (2)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>テーブルID</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +97,33 @@
       <t>ショハン</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ER図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注目商品マスタをタグマスタへ更新
+商品在庫リストを追加</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -360,7 +385,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,21 +426,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -439,6 +449,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4384,12 +4418,18 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>注目商品マスタ</a:t>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>タグマスタ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:endParaRPr>
@@ -4397,20 +4437,33 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(featured_product_masters)</a:t>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>(tag_masters)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>郵便番号</a:t>
-            </a:r>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>商品タグ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4452,185 +4505,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E198A34-E4D3-436B-BA52-6F19354E8C94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14220826" y="752475"/>
-          <a:ext cx="2362200" cy="1924050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>項目１</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>項目２</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9AE4D6-5475-488D-A4D4-918E0CA3094B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14220825" y="962025"/>
-          <a:ext cx="2362200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>182658</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>112805</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
+        <xdr:cNvPr id="80" name="グループ化 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F0867-F127-43C9-9231-08A5B4395762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F3B439-386A-4661-9742-E5241E2A13DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,1289 +4531,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4639235" y="582706"/>
+          <a:off x="5658972" y="11754970"/>
           <a:ext cx="2591921" cy="773953"/>
-          <a:chOff x="4639235" y="582706"/>
-          <a:chExt cx="2591921" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="テキスト ボックス 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F641C4-1D4C-407F-A75E-C7FA3FF34EAD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4639236" y="582706"/>
-            <a:ext cx="2591920" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員情報マスタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(operator_masters)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FF49BE-269E-499E-B08B-FF3E387C9C1A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4639235" y="978647"/>
-            <a:ext cx="2591920" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0F80F6-CAD8-4D7B-BC4C-709D018A8015}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1210235" y="13626353"/>
-          <a:ext cx="2591921" cy="773953"/>
-          <a:chOff x="5042647" y="3003176"/>
-          <a:chExt cx="2591921" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="テキスト ボックス 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81049785-7818-4246-BC9D-F250CD600922}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5042648" y="3003176"/>
-            <a:ext cx="2591920" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員アクセス情報</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(operator_access_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線コネクタ 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973719A3-02C3-4EC6-8FA4-7BAD1C84EA21}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5042647" y="3409763"/>
-            <a:ext cx="2591920" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CF886A-AE68-4981-A909-D1838081330E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1411941" y="14702118"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="806824" y="7171765"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8111C3-0924-4E2A-980B-4B5EC98DE9CC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806825" y="7171765"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員アクセス履歴</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(member_access_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="直線コネクタ 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9152C65B-D774-4195-9860-97654A77A63E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806824" y="7578351"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C807B8BB-DAC5-42E0-BB74-5E4C5B2944CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5042647" y="16315765"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="4034118" y="12012706"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D4E6B7-54D4-44F2-9EC4-542711658AB8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4034119" y="12012706"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品情報変更履歴</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_edit_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B664749E-A952-4DF9-B0CF-468BD04916EB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4034118" y="12419293"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D46605E-8348-4C21-9322-9DC352F5FDFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8471647" y="16315765"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="7463118" y="12012706"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="テキスト ボックス 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50FC353-297B-44BF-AF9A-952A947E4DF3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7463119" y="12012706"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>入出金履歴</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(deposits_withdrawals_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>入出金伝票</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="直線コネクタ 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F2403D-EF95-4666-8D59-F6704013DD13}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7463118" y="12419293"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C2598C-FB2B-407A-BFF1-8A12BE3E16FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5244353" y="13895294"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="806824" y="5961529"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC2FB2A-0039-4295-A700-42C6B979EA61}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806825" y="5961529"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員情報変更履歴</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(member_edit_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線コネクタ 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40992899-15A4-406C-B82A-136CE6D0F371}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806824" y="6364941"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC52A27D-1F70-49A8-9542-84E55C9DA349}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8875059" y="13760824"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="806824" y="9592235"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D7014B-2767-4D8B-8752-76525CDAF914}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806825" y="9592235"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員支払方法変更履歴</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(member_payment_edit_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="直線コネクタ 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56F1BD4-B2CF-4A5B-922A-EDEA26829785}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="806824" y="9991351"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D19C16-5CA6-4F51-94C4-1CAA4A95EC5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12707471" y="14164235"/>
-          <a:ext cx="2591920" cy="1229285"/>
-          <a:chOff x="11093824" y="7440706"/>
-          <a:chExt cx="2591920" cy="1229285"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="テキスト ボックス 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5F31DE-9BA1-48E2-91BD-4ADAD1819C7D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11093825" y="7440706"/>
-            <a:ext cx="2591919" cy="1229285"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品取引リスト履歴</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_delivery_status_lists)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>お取引番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="直線コネクタ 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892E5FF2-CBCA-42FF-94EE-7360E53D9E1E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11093824" y="7836647"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7E40A4-6B0B-4612-809C-6274D4B8C185}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5042647" y="12685059"/>
-          <a:ext cx="2591921" cy="773953"/>
-          <a:chOff x="5042647" y="1792941"/>
-          <a:chExt cx="2591921" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="テキスト ボックス 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6025EA8C-F0DE-47B2-BD69-92E5442EBE30}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5042648" y="1792941"/>
-            <a:ext cx="2591920" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員情報変更履歴</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(operator_edit_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>操作員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="直線コネクタ 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D94CDEF-94E9-44AC-BA36-5147ACA2B4B5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5042647" y="2199528"/>
-            <a:ext cx="2591920" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F204E161-8BE5-494C-BD71-DC32E52EC59C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="806824" y="5423647"/>
-          <a:ext cx="2591920" cy="773953"/>
           <a:chOff x="3630706" y="10802471"/>
           <a:chExt cx="2591920" cy="773953"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <xdr:cNvPr id="81" name="テキスト ボックス 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C002D773-0E47-41A2-BAED-A163B3E67516}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADD26A9-32C1-4076-AFB3-7CD7D7264B6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5958,12 +4580,18 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品情報マスタ</a:t>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>商品在庫リスト</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:endParaRPr>
@@ -5971,15 +4599,21 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_masters)</a:t>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              </a:rPr>
+              <a:t>(product_stock_lists)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
                 <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
                 <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               </a:rPr>
@@ -5990,10 +4624,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <xdr:cNvPr id="82" name="直線コネクタ 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0586562A-9578-4ACD-BA1F-16E88F5B32BC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73241F9F-BEB1-4985-9BD7-E5ECDB59B6C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6028,1082 +4662,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>197786</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>11209</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>129242</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="コネクタ: カギ線 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185FAFAA-D6E9-497D-971F-3F46EB1A9FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC06C15E-64DE-42E0-AB52-359BC4A5C4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="806824" y="3675529"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="403412" y="8382000"/>
-          <a:chExt cx="2591920" cy="773953"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="1"/>
+          <a:endCxn id="213" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5240433" y="11307483"/>
+          <a:ext cx="418541" cy="834465"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="テキスト ボックス 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CFAF07-ADCC-453B-B8A6-D5E5A67D8EC6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="403413" y="8382000"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員支払方法マスタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(member_access_histories)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="直線コネクタ 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF7E9C2-AAEA-4DC5-8D70-457949563E11}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="403412" y="8781116"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E851DA41-0BA6-4E0B-A63A-7507204E0B0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="806824" y="1927412"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="403412" y="4751294"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="テキスト ボックス 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A77CF2-B9A5-4122-862D-D1890BE8B757}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="403413" y="4751294"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員情報マスタ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(member_masters)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="直線コネクタ 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250BB8B3-CB2F-4EB5-BD68-EF36F2744E38}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="403412" y="5157881"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="グループ化 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5E0F49-675C-4E6C-A4E6-979AC3B1F0FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11295529" y="3810000"/>
-          <a:ext cx="2591920" cy="1229285"/>
-          <a:chOff x="10690412" y="5827059"/>
-          <a:chExt cx="2591920" cy="1229285"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="テキスト ボックス 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4067E60-EDFA-4DA2-ACF8-378CF2D5F4B2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690413" y="5827059"/>
-            <a:ext cx="2591919" cy="1229285"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品取引リスト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_transaction_lists)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>お取引番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="直線コネクタ 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19D18A1-3EAD-475E-80E6-33263DD45B7E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690412" y="6233646"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67CF662-2E55-473C-8527-E151369A885A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7463118" y="1927412"/>
-          <a:ext cx="2591920" cy="1126564"/>
-          <a:chOff x="10690412" y="4213412"/>
-          <a:chExt cx="2591920" cy="1126564"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="テキスト ボックス 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC27550D-AF8C-4A62-8595-D2D462B61C1E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690413" y="4213412"/>
-            <a:ext cx="2591919" cy="1126564"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品カートリスト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_cart_lists)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品コード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="45" name="直線コネクタ 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BC1C6C-F94F-4F13-8578-59AA97CF5F9F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690412" y="4619999"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="グループ化 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE86BEE-3069-440F-96CE-C24C981F5B9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11295529" y="5423647"/>
-          <a:ext cx="2591920" cy="1229285"/>
-          <a:chOff x="10690412" y="9054353"/>
-          <a:chExt cx="2591920" cy="1229285"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="テキスト ボックス 46">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D91A2BB-65B6-4570-9761-33B5BF0745C3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690413" y="9054353"/>
-            <a:ext cx="2591919" cy="1229285"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>商品配送状況リスト</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(product_delivery_status_lists)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>お取引番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>配送ステータス</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>配送ステータス更新日時</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="直線コネクタ 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26DCA1D-3737-4742-B27D-C4C8E0ECA8E0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690412" y="9460940"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="グループ化 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B9AD82-A56D-4C75-9FE7-02641518D0EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="806824" y="6902824"/>
-          <a:ext cx="2591920" cy="773953"/>
-          <a:chOff x="10690412" y="11340353"/>
-          <a:chExt cx="2591920" cy="773953"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="テキスト ボックス 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1453A0EE-E493-4A76-89FA-C2102DF05753}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690413" y="11340353"/>
-            <a:ext cx="2591919" cy="773953"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>住所マスタ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(address_masters)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>郵便番号</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="直線コネクタ 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16526D2-A8D0-4351-9FAE-A51A06C51124}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10690412" y="11746940"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="52" name="グループ化 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CF68B2-8503-4335-8B20-F6ABB561CB8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7664824" y="7037294"/>
-          <a:ext cx="2591920" cy="1176617"/>
-          <a:chOff x="7059706" y="10802471"/>
-          <a:chExt cx="2591920" cy="1176617"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="テキスト ボックス 52">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC50329-A476-4B66-BA29-4D2FC49F2AAC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7059707" y="10802471"/>
-            <a:ext cx="2591919" cy="1176617"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="72000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>入出金リスト</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>(deposits_withdrawals_lists)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>入出金伝票</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>お取引番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-                <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              </a:rPr>
-              <a:t>会員コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="54" name="直線コネクタ 53">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD6D8E3-DE60-40C5-984E-451CA0E544E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7059706" y="11209057"/>
-            <a:ext cx="2591919" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7431,7 +5041,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -7452,456 +5062,462 @@
       <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="17">
+      <c r="A4" s="25">
         <f t="shared" ref="A4:A51" si="0">ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="26">
         <v>43755</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="19">
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="28">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19">
+      <c r="A6" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="19">
+      <c r="A7" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="19">
+      <c r="A8" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="19">
+      <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19">
+      <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="19">
+      <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="19">
+      <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="19">
+      <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="19">
+      <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="19">
+      <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="19">
+      <c r="A16" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="19">
+      <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="19">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="19">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="19">
+      <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="19">
+      <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="19">
+      <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19">
+      <c r="A23" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="19">
+      <c r="A24" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="19">
+      <c r="A25" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="19">
+      <c r="A26" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19">
+      <c r="A27" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="19">
+      <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="19">
+      <c r="A29" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19">
+      <c r="A30" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="19">
+      <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="19">
+      <c r="A32" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="19">
+      <c r="A33" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="19">
+      <c r="A34" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="19">
+      <c r="A35" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="19">
+      <c r="A36" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="19">
+      <c r="A37" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="19">
+      <c r="A38" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="19">
+      <c r="A39" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="19">
+      <c r="A40" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="19">
+      <c r="A41" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="19">
+      <c r="A42" s="27">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="19">
+      <c r="A43" s="27">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="19">
+      <c r="A44" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="19">
+      <c r="A45" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="19">
+      <c r="A46" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="19">
+      <c r="A47" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="19">
+      <c r="A48" s="27">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="19">
+      <c r="A49" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="19">
+      <c r="A50" s="27">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21">
+      <c r="A51" s="30">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7918,8 +5534,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:DB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU27" sqref="AU27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -7928,63 +5544,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="5" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="25"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="18"/>
       <c r="BD1" s="1"/>
     </row>
     <row r="2" spans="1:76" s="1" customFormat="1"/>
@@ -8736,1053 +6352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75A2338-4229-4106-AD87-9F207F63A53D}">
-  <dimension ref="A1:BX76"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:76" s="5" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="1"/>
-    </row>
-    <row r="2" spans="1:76" s="1" customFormat="1"/>
-    <row r="3" spans="1:76" s="1" customFormat="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-    </row>
-    <row r="4" spans="1:76" s="1" customFormat="1">
-      <c r="A4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-    </row>
-    <row r="5" spans="1:76" s="1" customFormat="1">
-      <c r="A5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-    </row>
-    <row r="6" spans="1:76">
-      <c r="V6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:76">
-      <c r="V7" s="3"/>
-      <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:76">
-      <c r="V8" s="3"/>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:76">
-      <c r="V9" s="3"/>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:76">
-      <c r="V10" s="3"/>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:76">
-      <c r="V11" s="3"/>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:76">
-      <c r="V12" s="3"/>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:76">
-      <c r="V13" s="3"/>
-      <c r="AP13" s="3"/>
-    </row>
-    <row r="14" spans="1:76">
-      <c r="V14" s="3"/>
-      <c r="AP14" s="3"/>
-    </row>
-    <row r="15" spans="1:76">
-      <c r="V15" s="3"/>
-      <c r="AP15" s="3"/>
-    </row>
-    <row r="16" spans="1:76">
-      <c r="V16" s="3"/>
-      <c r="AP16" s="3"/>
-    </row>
-    <row r="17" spans="22:44">
-      <c r="V17" s="3"/>
-      <c r="AP17" s="3"/>
-    </row>
-    <row r="18" spans="22:44">
-      <c r="V18" s="3"/>
-      <c r="AP18" s="4"/>
-    </row>
-    <row r="19" spans="22:44">
-      <c r="V19" s="3"/>
-      <c r="AP19" s="4"/>
-    </row>
-    <row r="20" spans="22:44">
-      <c r="V20" s="3"/>
-      <c r="AP20" s="4"/>
-    </row>
-    <row r="21" spans="22:44">
-      <c r="V21" s="3"/>
-      <c r="AP21" s="4"/>
-    </row>
-    <row r="22" spans="22:44">
-      <c r="V22" s="3"/>
-      <c r="AP22" s="4"/>
-    </row>
-    <row r="23" spans="22:44">
-      <c r="V23" s="3"/>
-      <c r="AP23" s="3"/>
-    </row>
-    <row r="24" spans="22:44">
-      <c r="V24" s="3"/>
-      <c r="AP24" s="3"/>
-    </row>
-    <row r="25" spans="22:44">
-      <c r="V25" s="3"/>
-      <c r="AP25" s="3"/>
-    </row>
-    <row r="26" spans="22:44">
-      <c r="V26" s="3"/>
-      <c r="AP26" s="3"/>
-    </row>
-    <row r="27" spans="22:44">
-      <c r="V27" s="3"/>
-      <c r="AP27" s="3"/>
-    </row>
-    <row r="28" spans="22:44">
-      <c r="V28" s="3"/>
-      <c r="AP28" s="3"/>
-    </row>
-    <row r="29" spans="22:44">
-      <c r="V29" s="3"/>
-      <c r="AP29" s="3"/>
-    </row>
-    <row r="30" spans="22:44">
-      <c r="V30" s="3"/>
-      <c r="AP30" s="3"/>
-    </row>
-    <row r="31" spans="22:44">
-      <c r="V31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-    </row>
-    <row r="32" spans="22:44">
-      <c r="V32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-    </row>
-    <row r="33" spans="2:58">
-      <c r="V33" s="3"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-    </row>
-    <row r="34" spans="2:58">
-      <c r="V34" s="3"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-    </row>
-    <row r="35" spans="2:58">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="6"/>
-      <c r="V35" s="3"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-    </row>
-    <row r="36" spans="2:58">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="6"/>
-      <c r="V36" s="3"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-    </row>
-    <row r="37" spans="2:58">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-    </row>
-    <row r="38" spans="2:58">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-    </row>
-    <row r="39" spans="2:58">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-    </row>
-    <row r="40" spans="2:58">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3"/>
-    </row>
-    <row r="41" spans="2:58">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-    </row>
-    <row r="42" spans="2:58">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-    </row>
-    <row r="43" spans="2:58">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-    </row>
-    <row r="44" spans="2:58">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-    </row>
-    <row r="45" spans="2:58">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:58">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="2:58">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="2:58">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="4"/>
-    </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="2:20">
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="2:20">
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="2:20">
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="2:20">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="T64" s="4"/>
-    </row>
-    <row r="65" spans="20:20">
-      <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="20:20">
-      <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="20:20">
-      <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="20:20">
-      <c r="T68" s="4"/>
-    </row>
-    <row r="69" spans="20:20">
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" spans="20:20">
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" spans="20:20">
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" spans="20:20">
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" spans="20:20">
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" spans="20:20">
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="20:20">
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="20:20">
-      <c r="T76" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE22BD7C-3468-4177-9C79-CCD24B75BA0A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9796,7 +6370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -9813,15 +6387,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="10" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="27"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
